--- a/Ставки/КХЛ 23-24 (2).xlsx
+++ b/Ставки/КХЛ 23-24 (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -5005,7 +5005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W79" sqref="W79"/>
     </sheetView>
   </sheetViews>
@@ -13108,6 +13108,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -13119,11 +13124,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -13134,8 +13134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="Q46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA80" sqref="AA80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -21721,7 +21721,7 @@
         <v>-2000</v>
       </c>
       <c r="X72" s="47">
-        <v>-4.2</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="Y72" s="47">
         <v>1</v>
@@ -21794,8 +21794,8 @@
         <v>-3000</v>
       </c>
       <c r="X73" s="47">
-        <f>X72*W77</f>
-        <v>14700</v>
+        <f>X72*W78</f>
+        <v>22000</v>
       </c>
       <c r="Y73" s="47">
         <v>2</v>
@@ -21867,8 +21867,8 @@
         <v>-3000</v>
       </c>
       <c r="X74" s="47">
-        <f>X73+S80</f>
-        <v>-6550</v>
+        <f>X73+SUM(W77:W78) + S80</f>
+        <v>-7750</v>
       </c>
       <c r="Y74" s="47">
         <v>3</v>
@@ -22113,7 +22113,9 @@
       <c r="V78" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="W78" s="47"/>
+      <c r="W78" s="47">
+        <v>-5000</v>
+      </c>
       <c r="X78" s="47"/>
       <c r="Y78" s="47">
         <v>1</v>
@@ -22155,7 +22157,9 @@
       <c r="Z79" s="47" t="s">
         <v>755</v>
       </c>
-      <c r="AA79" s="47"/>
+      <c r="AA79" s="47">
+        <v>-2000</v>
+      </c>
       <c r="AB79" s="47"/>
     </row>
     <row r="80" spans="1:48">
@@ -22237,6 +22241,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -22248,11 +22257,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ставки/КХЛ 23-24 (2).xlsx
+++ b/Ставки/КХЛ 23-24 (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -5005,8 +5005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W79" sqref="W79"/>
+    <sheetView tabSelected="1" topLeftCell="H50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W80" sqref="W80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12719,7 +12719,7 @@
         <v>-1500</v>
       </c>
       <c r="X72" s="47">
-        <v>-4.2</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="Y72" s="46"/>
       <c r="Z72" s="46" t="s">
@@ -12786,8 +12786,8 @@
         <v>-2500</v>
       </c>
       <c r="X73" s="47">
-        <f>X72*W79</f>
-        <v>18900</v>
+        <f>X72*W80</f>
+        <v>22000</v>
       </c>
       <c r="Y73" s="46"/>
       <c r="Z73" s="46" t="s">
@@ -13017,7 +13017,8 @@
         <v>24</v>
       </c>
       <c r="S78" s="83">
-        <v>-27550</v>
+        <f>-27550 +X79</f>
+        <v>-18150</v>
       </c>
       <c r="T78" s="81"/>
       <c r="U78" s="47">
@@ -13031,7 +13032,7 @@
       </c>
       <c r="X78" s="47">
         <f>X73+SUM(S78,W78)</f>
-        <v>-13650</v>
+        <v>-1150</v>
       </c>
     </row>
     <row r="79" spans="1:44">
@@ -13041,10 +13042,13 @@
       <c r="V79" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="W79" s="47">
+      <c r="W79" s="48">
         <v>-4500</v>
       </c>
-      <c r="X79" s="47"/>
+      <c r="X79" s="48">
+        <f>18900+SUM(W78:W79)</f>
+        <v>9400</v>
+      </c>
     </row>
     <row r="80" spans="1:44">
       <c r="U80" s="47">
@@ -13053,7 +13057,9 @@
       <c r="V80" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="W80" s="47"/>
+      <c r="W80" s="47">
+        <v>-5000</v>
+      </c>
       <c r="X80" s="47"/>
     </row>
     <row r="81" spans="10:24">
@@ -13108,11 +13114,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -13124,6 +13125,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -13134,7 +13140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="Q46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AA80" sqref="AA80"/>
     </sheetView>
   </sheetViews>
@@ -22241,11 +22247,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -22257,6 +22258,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ставки/КХЛ 23-24 (2).xlsx
+++ b/Ставки/КХЛ 23-24 (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -2694,7 +2694,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2833,6 +2833,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
@@ -5005,7 +5006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W80" sqref="W80"/>
     </sheetView>
   </sheetViews>
@@ -13114,6 +13115,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -13125,11 +13131,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -13140,8 +13141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView topLeftCell="Q46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA80" sqref="AA80"/>
+    <sheetView tabSelected="1" topLeftCell="Q46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y80" sqref="Y80:AB80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -22149,14 +22150,16 @@
       <c r="S79" s="84">
         <v>-6500</v>
       </c>
-      <c r="U79" s="47">
+      <c r="U79" s="100">
         <v>3</v>
       </c>
-      <c r="V79" s="47" t="s">
+      <c r="V79" s="100" t="s">
         <v>750</v>
       </c>
-      <c r="W79" s="47"/>
-      <c r="X79" s="47"/>
+      <c r="W79" s="100">
+        <v>-3000</v>
+      </c>
+      <c r="X79" s="100"/>
       <c r="Y79" s="47">
         <v>2</v>
       </c>
@@ -22192,14 +22195,16 @@
       </c>
       <c r="W80" s="47"/>
       <c r="X80" s="47"/>
-      <c r="Y80" s="47">
+      <c r="Y80" s="100">
         <v>3</v>
       </c>
-      <c r="Z80" s="47" t="s">
+      <c r="Z80" s="100" t="s">
         <v>412</v>
       </c>
-      <c r="AA80" s="47"/>
-      <c r="AB80" s="47"/>
+      <c r="AA80" s="100">
+        <v>-3000</v>
+      </c>
+      <c r="AB80" s="100"/>
     </row>
     <row r="81" spans="10:28">
       <c r="Y81" s="47">
@@ -22247,6 +22252,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -22258,11 +22268,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ставки/КХЛ 23-24 (2).xlsx
+++ b/Ставки/КХЛ 23-24 (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="756">
   <si>
     <t>№</t>
   </si>
@@ -2328,9 +2328,6 @@
   </si>
   <si>
     <t>Метталург - Спартак</t>
-  </si>
-  <si>
-    <t>Итого</t>
   </si>
 </sst>
 </file>
@@ -2694,7 +2691,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2833,7 +2830,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
@@ -5006,8 +5002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W80" sqref="W80"/>
+    <sheetView tabSelected="1" topLeftCell="I50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W82" sqref="W82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -13070,7 +13066,9 @@
       <c r="V81" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="W81" s="47"/>
+      <c r="W81" s="47">
+        <v>-2500</v>
+      </c>
       <c r="X81" s="47"/>
     </row>
     <row r="82" spans="10:24" ht="15" customHeight="1">
@@ -13115,11 +13113,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -13131,6 +13124,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -13141,8 +13139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y80" sqref="Y80:AB80"/>
+    <sheetView topLeftCell="P46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -21875,7 +21873,7 @@
       </c>
       <c r="X74" s="47">
         <f>X73+SUM(W77:W78) + S80</f>
-        <v>-7750</v>
+        <v>13500</v>
       </c>
       <c r="Y74" s="47">
         <v>3</v>
@@ -22108,12 +22106,8 @@
         <v>-2000</v>
       </c>
       <c r="H78" s="47"/>
-      <c r="R78" s="84" t="s">
-        <v>489</v>
-      </c>
-      <c r="S78" s="84">
-        <v>-14750</v>
-      </c>
+      <c r="R78" s="84"/>
+      <c r="S78" s="84"/>
       <c r="U78" s="47">
         <v>2</v>
       </c>
@@ -22142,24 +22136,28 @@
       <c r="F79" s="47" t="s">
         <v>752</v>
       </c>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="R79" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="S79" s="84">
-        <v>-6500</v>
-      </c>
-      <c r="U79" s="100">
+      <c r="G79" s="48">
+        <v>-2000</v>
+      </c>
+      <c r="H79" s="48">
+        <f>7800+SUM(G78:G79)</f>
+        <v>3800</v>
+      </c>
+      <c r="R79" s="84"/>
+      <c r="S79" s="84"/>
+      <c r="U79" s="48">
         <v>3</v>
       </c>
-      <c r="V79" s="100" t="s">
+      <c r="V79" s="48" t="s">
         <v>750</v>
       </c>
-      <c r="W79" s="100">
+      <c r="W79" s="48">
         <v>-3000</v>
       </c>
-      <c r="X79" s="100"/>
+      <c r="X79" s="48">
+        <f>11550-21250-3000</f>
+        <v>-12700</v>
+      </c>
       <c r="Y79" s="47">
         <v>2</v>
       </c>
@@ -22178,15 +22176,11 @@
       <c r="F80" s="47" t="s">
         <v>753</v>
       </c>
-      <c r="G80" s="47"/>
+      <c r="G80" s="47">
+        <v>-2500</v>
+      </c>
       <c r="H80" s="47"/>
-      <c r="R80" s="82" t="s">
-        <v>756</v>
-      </c>
-      <c r="S80">
-        <f>SUM(S78:S79)</f>
-        <v>-21250</v>
-      </c>
+      <c r="R80" s="82"/>
       <c r="U80" s="47">
         <v>4</v>
       </c>
@@ -22195,16 +22189,16 @@
       </c>
       <c r="W80" s="47"/>
       <c r="X80" s="47"/>
-      <c r="Y80" s="100">
+      <c r="Y80" s="47">
         <v>3</v>
       </c>
-      <c r="Z80" s="100" t="s">
+      <c r="Z80" s="47" t="s">
         <v>412</v>
       </c>
-      <c r="AA80" s="100">
-        <v>-3000</v>
-      </c>
-      <c r="AB80" s="100"/>
+      <c r="AA80" s="47">
+        <v>-3600</v>
+      </c>
+      <c r="AB80" s="47"/>
     </row>
     <row r="81" spans="10:28">
       <c r="Y81" s="47">
@@ -22252,11 +22246,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -22268,6 +22257,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
